--- a/App/BillingBase/Privat/fakturaunderlag_privat_2021-3.xlsx
+++ b/App/BillingBase/Privat/fakturaunderlag_privat_2021-3.xlsx
@@ -14,9 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <x:si>
-    <x:t>Hello World!</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <x:si>
+    <x:t>Namn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Veckor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Antal gånger</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Timmar per gång</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Totala timmar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Timpris</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ex. Moms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ink. Moms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Efter rut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Olof Bängman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karin Bertram</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Martina Kroon</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -367,20 +400,108 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:A2"/>
+  <x:dimension ref="A1:I4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:1">
+    <x:row r="1" spans="1:9">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:1">
-      <x:c r="A2" s="0">
-        <x:f>MID(A1, 7, 5)</x:f>
+    <x:row r="2" spans="1:9">
+      <x:c r="A2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="n">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="n">
+        <x:v>1760</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="n">
+        <x:v>2200</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="n">
+        <x:v>1100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="A3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="n">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="n">
+        <x:v>1760</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="n">
+        <x:v>2200</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="n">
+        <x:v>1100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="n">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="n">
+        <x:v>1760</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="n">
+        <x:v>2200</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="n">
+        <x:v>1100</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
